--- a/stock_predictor_ai/data/cleaned/UBER.xlsx
+++ b/stock_predictor_ai/data/cleaned/UBER.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1537"/>
+  <dimension ref="A1:F1538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31189,6 +31189,26 @@
         <v>2138441</v>
       </c>
     </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>96.88700103759766</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>97.70999908447266</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>96.36000061035156</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>1922988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/UBER.xlsx
+++ b/stock_predictor_ai/data/cleaned/UBER.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1538"/>
+  <dimension ref="A1:F1539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31209,6 +31209,26 @@
         <v>1922988</v>
       </c>
     </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>92.20999908447266</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>95.16000366210938</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>91.84999847412109</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>18469900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/UBER.xlsx
+++ b/stock_predictor_ai/data/cleaned/UBER.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1539"/>
+  <dimension ref="A1:F1540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31229,6 +31229,26 @@
         <v>18469900</v>
       </c>
     </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>91.38390350341797</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>91.90139770507812</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>90.80000305175781</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>90.84999847412109</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>2761540</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/UBER.xlsx
+++ b/stock_predictor_ai/data/cleaned/UBER.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1540"/>
+  <dimension ref="A1:F1541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31249,6 +31249,26 @@
         <v>2761540</v>
       </c>
     </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>92.91999816894531</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>93.53700256347656</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>91.91999816894531</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>92.26000213623047</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>6655265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/UBER.xlsx
+++ b/stock_predictor_ai/data/cleaned/UBER.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1541"/>
+  <dimension ref="A1:F1536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31169,106 +31171,6 @@
         <v>13664700</v>
       </c>
     </row>
-    <row r="1537">
-      <c r="A1537" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B1537" t="n">
-        <v>93.86499786376953</v>
-      </c>
-      <c r="C1537" t="n">
-        <v>94.11000061035156</v>
-      </c>
-      <c r="D1537" t="n">
-        <v>92.61000061035156</v>
-      </c>
-      <c r="E1537" t="n">
-        <v>92.62999725341797</v>
-      </c>
-      <c r="F1537" t="n">
-        <v>2138441</v>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B1538" t="n">
-        <v>96.88700103759766</v>
-      </c>
-      <c r="C1538" t="n">
-        <v>97.70999908447266</v>
-      </c>
-      <c r="D1538" t="n">
-        <v>96.36000061035156</v>
-      </c>
-      <c r="E1538" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F1538" t="n">
-        <v>1922988</v>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B1539" t="n">
-        <v>92.20999908447266</v>
-      </c>
-      <c r="C1539" t="n">
-        <v>95.16000366210938</v>
-      </c>
-      <c r="D1539" t="n">
-        <v>91.84999847412109</v>
-      </c>
-      <c r="E1539" t="n">
-        <v>95</v>
-      </c>
-      <c r="F1539" t="n">
-        <v>18469900</v>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B1540" t="n">
-        <v>91.38390350341797</v>
-      </c>
-      <c r="C1540" t="n">
-        <v>91.90139770507812</v>
-      </c>
-      <c r="D1540" t="n">
-        <v>90.80000305175781</v>
-      </c>
-      <c r="E1540" t="n">
-        <v>90.84999847412109</v>
-      </c>
-      <c r="F1540" t="n">
-        <v>2761540</v>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B1541" t="n">
-        <v>92.91999816894531</v>
-      </c>
-      <c r="C1541" t="n">
-        <v>93.53700256347656</v>
-      </c>
-      <c r="D1541" t="n">
-        <v>91.91999816894531</v>
-      </c>
-      <c r="E1541" t="n">
-        <v>92.26000213623047</v>
-      </c>
-      <c r="F1541" t="n">
-        <v>6655265</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
